--- a/codecIPs.xlsx
+++ b/codecIPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasgari/Desktop/ProgrammabilityProjects/codecAutomation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AD812DC1-4ED3-F448-8B54-D26C6B0B248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B34ED84-3502-114E-90BA-22FDFFB68711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37140" yWindow="1160" windowWidth="27640" windowHeight="16940" xr2:uid="{E58DE65F-FC28-A246-91D6-0D4DF133C8DE}"/>
+    <workbookView xWindow="33840" yWindow="900" windowWidth="27640" windowHeight="16940" xr2:uid="{E58DE65F-FC28-A246-91D6-0D4DF133C8DE}"/>
   </bookViews>
   <sheets>
     <sheet name="codecIPs" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>IP</t>
   </si>
   <si>
+    <t>10.150.8.42 </t>
+  </si>
+  <si>
+    <t>10.150.8.33 </t>
+  </si>
+  <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>P@55w0rd</t>
   </si>
   <si>
     <t>password</t>
@@ -415,7 +427,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="C3" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,23 +437,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://10.150.8.42/" xr:uid="{25EC4107-1611-A440-9FE6-16D89DB137FE}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://10.150.8.33/" xr:uid="{2DBC2A61-70ED-E046-A588-BBAB0B550B7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>